--- a/_site/archives/20210202/ForecastTable.xlsx
+++ b/_site/archives/20210202/ForecastTable.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daisuke/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daisuke/Desktop/Dropbox/Research/fujii_nakata/Website/Codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D09B7A9-EED3-0D49-91EC-7D23CB9D267F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E855AD5-2BDD-804F-AF8B-3EF2A1659063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26020" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{E69A9DA1-FB4B-4B4C-BA07-B6B1C81BDBA2}"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{E69A9DA1-FB4B-4B4C-BA07-B6B1C81BDBA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,14 +421,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34537</v>
+        <v>34281</v>
       </c>
       <c r="C2">
         <v>24238</v>
       </c>
       <c r="D2">
         <f>B2-C2</f>
-        <v>10299</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -436,14 +436,14 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C3">
-        <v>583</v>
+        <v>637</v>
       </c>
       <c r="D3">
         <f>B3-C3</f>
-        <v>-134</v>
+        <v>-190</v>
       </c>
     </row>
   </sheetData>
